--- a/results/I3_N5_M2_T30_C200_DepCentral_s3_P1_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1177.130343201983</v>
+        <v>1073.49013953524</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.957840319717379</v>
+        <v>11.43422928288365</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.94333144582801</v>
+        <v>5.06951674225463</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>724.8500000000029</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>432.4399999999999</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.43422928288365</v>
+        <v>15.79579898937523</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.53978881378947</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.612049279841017</v>
+        <v>23.61797899241786</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17.04215968028262</v>
+        <v>10.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.42062279298568</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>89.26999999999948</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>81.12499999999949</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>86.9849999999995</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>78.56999999999947</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>83.56499999999949</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>167.7799999999993</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>171.0899999999993</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>165.1299999999993</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>165.2649999999992</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>166.5199999999993</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>35.25999999999986</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>27.32499999999985</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>30.18999999999986</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>28.38999999999985</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>268.5400000000003</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>271.7950000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>268.7550000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>277.7900000000002</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>275.5450000000003</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>206.85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>209.13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>202.465</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>213.09</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>213.97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>268.5400000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>271.7950000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>268.7550000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>277.7900000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>275.5450000000003</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>68.5400000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>71.7950000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>68.75500000000028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>77.79000000000025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>75.5450000000003</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>10.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
